--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-observation-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>すべてのObservation（検査測定や観察事実）の共通部分のプロファイル</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1758,19 +1754,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AN1" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -1781,10 +1777,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1795,28 +1791,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1866,13 +1862,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1901,10 +1897,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1915,25 +1911,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1984,19 +1980,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2019,10 +2015,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2033,28 +2029,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2104,19 +2100,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2139,10 +2135,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2153,7 +2149,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2165,16 +2161,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2200,43 +2196,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2259,21 +2255,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2285,16 +2281,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2344,31 +2340,31 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2379,14 +2375,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2405,16 +2401,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2464,7 +2460,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2488,7 +2484,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2499,14 +2495,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2525,16 +2521,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2584,7 +2580,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2596,7 +2592,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2608,7 +2604,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -2619,14 +2615,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2639,25 +2635,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2706,7 +2702,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2718,7 +2714,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2730,7 +2726,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -2741,10 +2737,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2764,20 +2760,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2826,7 +2822,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2838,22 +2834,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AN10" t="s" s="2">
+      <c r="AO10" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -2861,14 +2857,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2884,20 +2880,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2946,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2958,19 +2954,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -2981,14 +2977,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3004,19 +3000,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3066,7 +3062,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3078,19 +3074,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3101,10 +3097,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3112,34 +3108,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3164,58 +3160,58 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3223,10 +3219,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3249,19 +3245,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3286,11 +3282,11 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3308,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3320,7 +3316,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3332,10 +3328,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3343,45 +3339,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3406,69 +3402,69 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3479,31 +3475,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3552,34 +3548,34 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>41</v>
@@ -3587,10 +3583,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3610,19 +3606,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3672,7 +3668,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3684,7 +3680,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -3693,13 +3689,13 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>41</v>
@@ -3707,45 +3703,45 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -3794,34 +3790,34 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>41</v>
@@ -3829,45 +3825,45 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3916,34 +3912,34 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>41</v>
@@ -3951,10 +3947,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3965,28 +3961,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4036,19 +4032,19 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4057,13 +4053,13 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>41</v>
@@ -4071,10 +4067,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4094,22 +4090,22 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -4158,7 +4154,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4170,22 +4166,22 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>41</v>
@@ -4193,10 +4189,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4207,31 +4203,31 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4280,45 +4276,45 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4329,7 +4325,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4341,19 +4337,19 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4378,55 +4374,55 @@
         <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI23" t="s" s="2">
+      <c r="AJ23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4437,14 +4433,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4463,19 +4459,19 @@
         <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4500,14 +4496,14 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4524,7 +4520,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4536,33 +4532,33 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4585,19 +4581,19 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4646,7 +4642,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4658,7 +4654,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -4667,10 +4663,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -4681,10 +4677,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4695,7 +4691,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4707,16 +4703,16 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4742,69 +4738,69 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4815,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4827,19 +4823,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4864,55 +4860,55 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -4923,10 +4919,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4937,7 +4933,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4949,16 +4945,16 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5008,45 +5004,45 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5057,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5069,16 +5065,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5128,45 +5124,45 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5189,19 +5185,19 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5250,7 +5246,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5262,19 +5258,19 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5285,10 +5281,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5299,7 +5295,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5311,13 +5307,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5368,31 +5364,31 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5403,14 +5399,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5429,16 +5425,16 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5488,7 +5484,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5500,7 +5496,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -5512,7 +5508,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5523,14 +5519,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5543,25 +5539,25 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5610,7 +5606,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5622,7 +5618,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -5634,7 +5630,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5645,10 +5641,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5659,7 +5655,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5671,13 +5667,13 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5728,31 +5724,31 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -5763,10 +5759,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5777,7 +5773,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5789,13 +5785,13 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5846,31 +5842,31 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -5881,10 +5877,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5895,7 +5891,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5907,19 +5903,19 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5944,55 +5940,55 @@
         <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6003,10 +5999,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6029,19 +6025,19 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6066,14 +6062,14 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
       </c>
@@ -6090,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6102,19 +6098,19 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6125,10 +6121,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6139,7 +6135,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6151,17 +6147,17 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6210,19 +6206,19 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6234,7 +6230,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6245,10 +6241,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6259,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6271,13 +6267,13 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6328,19 +6324,19 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6349,10 +6345,10 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6363,10 +6359,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6386,19 +6382,19 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6448,7 +6444,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6460,7 +6456,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6469,10 +6465,10 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6483,10 +6479,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6506,19 +6502,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6568,7 +6564,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6580,7 +6576,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6589,10 +6585,10 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -6603,10 +6599,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6626,22 +6622,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6690,7 +6686,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6702,7 +6698,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -6711,10 +6707,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -6725,10 +6721,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6739,7 +6735,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6751,13 +6747,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6808,31 +6804,31 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -6843,14 +6839,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6869,16 +6865,16 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6928,7 +6924,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6940,7 +6936,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -6952,7 +6948,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -6963,14 +6959,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6983,25 +6979,25 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7050,7 +7046,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7062,7 +7058,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7074,7 +7070,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7085,10 +7081,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7096,34 +7092,34 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="O46" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7148,14 +7144,14 @@
         <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>41</v>
       </c>
@@ -7172,34 +7168,34 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>41</v>
@@ -7207,10 +7203,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7221,31 +7217,31 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="O47" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7294,45 +7290,45 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7343,7 +7339,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7355,19 +7351,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="O48" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7392,55 +7388,55 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI48" t="s" s="2">
+      <c r="AJ48" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7451,14 +7447,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7477,19 +7473,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7514,14 +7510,14 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7538,7 +7534,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7550,33 +7546,33 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7602,16 +7598,16 @@
         <v>42</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7660,7 +7656,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7672,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -7681,10 +7677,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
